--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/Workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5748B4CD-9F7F-4145-A2F6-C8EEA5BC442D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FE8AC64-A69F-4F52-9152-E095B4457783}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80B9EC-7848-4DB9-91BA-8058EF03E518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="EPP_TC002" sheetId="2" r:id="rId3"/>
     <sheet name="EPP_TC003" sheetId="5" r:id="rId4"/>
     <sheet name="EPP_TC004" sheetId="6" r:id="rId5"/>
+    <sheet name="EPP_TC005" sheetId="8" r:id="rId6"/>
+    <sheet name="EPP_TC006" sheetId="9" r:id="rId7"/>
+    <sheet name="EPP_TC007" sheetId="11" r:id="rId8"/>
+    <sheet name="EPP_TC008" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
   <si>
     <t>TestID</t>
   </si>
@@ -67,12 +71,6 @@
     <t>Outgoing High Value Bank Payment (FRB)</t>
   </si>
   <si>
-    <t>CreatePayTitle</t>
-  </si>
-  <si>
-    <t>Create Payment</t>
-  </si>
-  <si>
     <t>AccountNumber</t>
   </si>
   <si>
@@ -181,9 +179,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>EPP_TC002</t>
   </si>
   <si>
@@ -202,21 +197,12 @@
     <t>BeneCustAddress</t>
   </si>
   <si>
-    <t>10/19/21</t>
-  </si>
-  <si>
     <t>What is the name of your first employer?|What is the last name of your favorite childhood neighbors?|What is your mother's maiden name?|What is the name of your high school?|What is your favorite sport?|In which city are you born?|What is the name of your best friend?</t>
   </si>
   <si>
     <t>employer|neighbors|name|school|sport|born|friend</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Incoming High Value Customer Payment (FRB)</t>
-  </si>
-  <si>
     <t>33442</t>
   </si>
   <si>
@@ -235,35 +221,122 @@
     <t>EPP_TC004</t>
   </si>
   <si>
-    <t>Incoming High Value Bank Payment (FRB)</t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>17</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>EPP_TC005</t>
+  </si>
+  <si>
+    <t>TemplateOption</t>
+  </si>
+  <si>
+    <t>Duplicate Payments</t>
+  </si>
+  <si>
+    <t>ActionOnDuplicate</t>
+  </si>
+  <si>
+    <t>CancelPayment</t>
+  </si>
+  <si>
+    <t>CommentBox</t>
+  </si>
+  <si>
+    <t>CancelInitiator</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>CUST</t>
+  </si>
+  <si>
+    <t>WorkSummayOption</t>
+  </si>
+  <si>
+    <t>DuplicateTransactionStaus</t>
+  </si>
+  <si>
+    <t>ApprovalStaus</t>
+  </si>
+  <si>
+    <t>Payment Action Verification</t>
+  </si>
+  <si>
+    <t>Duplicate Content</t>
+  </si>
+  <si>
+    <t>ApprovePayment</t>
+  </si>
+  <si>
+    <t>EPP_TC006</t>
+  </si>
+  <si>
+    <t>EPP_TC007</t>
+  </si>
+  <si>
+    <t>RepairCommentBox</t>
+  </si>
+  <si>
+    <t>WorkPoolOption</t>
+  </si>
+  <si>
+    <t>Payment Repair</t>
+  </si>
+  <si>
+    <t>'Work Summary</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>EPP_TC008</t>
+  </si>
+  <si>
+    <t>Test3442</t>
+  </si>
+  <si>
+    <t>11/10/21</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>10/21/21</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10/27/21</t>
+    <t>UpdatedAmount</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Payment Repair Verification</t>
+  </si>
+  <si>
+    <t>ApprovalDate</t>
+  </si>
+  <si>
+    <t>11/11/21</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,20 +353,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,18 +374,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -342,20 +402,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC8C8C8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,14 +426,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -668,7 +718,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +736,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,55 +746,56 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:BL12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
@@ -794,121 +845,598 @@
         <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2" s="10" t="s">
+      <c r="X2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="2"/>
-      <c r="I3" s="7" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F5" s="7"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F7" s="7"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -918,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,25 +1461,24 @@
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,46 +1492,46 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>35</v>
@@ -1016,33 +1543,30 @@
         <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1050,38 +1574,38 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>36</v>
@@ -1089,77 +1613,66 @@
       <c r="T2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>57</v>
+      <c r="U2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1168,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" activeCellId="1" sqref="F9 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,27 +1692,15 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,192 +1711,76 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,10 +1789,93 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D4517-CBEA-43D4-A710-8B83EE44DC85}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,25 +1884,25 @@
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,127 +1916,331 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3095139-3849-4A61-ADF7-1C18231D624A}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C80B9EC-7848-4DB9-91BA-8058EF03E518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D230B-B68B-4EA6-88AB-65819EAB34E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="EPP_TC006" sheetId="9" r:id="rId7"/>
     <sheet name="EPP_TC007" sheetId="11" r:id="rId8"/>
     <sheet name="EPP_TC008" sheetId="12" r:id="rId9"/>
+    <sheet name="EPP_TC009" sheetId="13" r:id="rId10"/>
+    <sheet name="EPP_TC010" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>TestID</t>
   </si>
@@ -47,30 +49,12 @@
     <t>TC002</t>
   </si>
   <si>
-    <t>SubMenu</t>
-  </si>
-  <si>
-    <t>Payment Creation</t>
-  </si>
-  <si>
-    <t>PaymentTemplate</t>
-  </si>
-  <si>
     <t>SecurityQuestion1</t>
   </si>
   <si>
     <t>SecurityAnswer1</t>
   </si>
   <si>
-    <t>Unauthorized Access Warning</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Outgoing High Value Bank Payment (FRB)</t>
-  </si>
-  <si>
     <t>AccountNumber</t>
   </si>
   <si>
@@ -116,63 +100,12 @@
     <t>021000089</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>Manual Payments</t>
-  </si>
-  <si>
     <t>021000021</t>
   </si>
   <si>
-    <t>TemplateHeader</t>
-  </si>
-  <si>
-    <t>Work Summary</t>
-  </si>
-  <si>
-    <t>WorkSummaryHeader</t>
-  </si>
-  <si>
-    <t>WorkSummaryTemplate</t>
-  </si>
-  <si>
-    <t>Payment Creation Verification</t>
-  </si>
-  <si>
-    <t>BannerMessage</t>
-  </si>
-  <si>
-    <t>This transaction has been submitted for approval following manual creation</t>
-  </si>
-  <si>
-    <t>PaymentDetailsTab</t>
-  </si>
-  <si>
-    <t>Payment Details</t>
-  </si>
-  <si>
     <t>ValueDate</t>
   </si>
   <si>
-    <t>PaymentMenu</t>
-  </si>
-  <si>
-    <t>PaymentSubMenu</t>
-  </si>
-  <si>
-    <t>Payment Tracking</t>
-  </si>
-  <si>
-    <t>Transaction Inquiry</t>
-  </si>
-  <si>
-    <t>TransactionStaus</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>EPP_TC001</t>
   </si>
   <si>
@@ -182,9 +115,6 @@
     <t>EPP_TC002</t>
   </si>
   <si>
-    <t>Outgoing High Value Customer Payment (FRB)</t>
-  </si>
-  <si>
     <t>CustAccountNumber</t>
   </si>
   <si>
@@ -239,66 +169,12 @@
     <t>EPP_TC005</t>
   </si>
   <si>
-    <t>TemplateOption</t>
-  </si>
-  <si>
-    <t>Duplicate Payments</t>
-  </si>
-  <si>
-    <t>ActionOnDuplicate</t>
-  </si>
-  <si>
-    <t>CancelPayment</t>
-  </si>
-  <si>
-    <t>CommentBox</t>
-  </si>
-  <si>
-    <t>CancelInitiator</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>CUST</t>
-  </si>
-  <si>
-    <t>WorkSummayOption</t>
-  </si>
-  <si>
-    <t>DuplicateTransactionStaus</t>
-  </si>
-  <si>
-    <t>ApprovalStaus</t>
-  </si>
-  <si>
-    <t>Payment Action Verification</t>
-  </si>
-  <si>
-    <t>Duplicate Content</t>
-  </si>
-  <si>
-    <t>ApprovePayment</t>
-  </si>
-  <si>
     <t>EPP_TC006</t>
   </si>
   <si>
     <t>EPP_TC007</t>
   </si>
   <si>
-    <t>RepairCommentBox</t>
-  </si>
-  <si>
-    <t>WorkPoolOption</t>
-  </si>
-  <si>
-    <t>Payment Repair</t>
-  </si>
-  <si>
-    <t>'Work Summary</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -308,21 +184,12 @@
     <t>Test3442</t>
   </si>
   <si>
-    <t>11/10/21</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>UpdatedAmount</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Payment Repair Verification</t>
-  </si>
-  <si>
     <t>ApprovalDate</t>
   </si>
   <si>
@@ -330,6 +197,27 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>11/13/21</t>
+  </si>
+  <si>
+    <t>EPP_TC009</t>
+  </si>
+  <si>
+    <t>11/15/21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>EPP_TC010</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>1258</t>
   </si>
 </sst>
 </file>
@@ -359,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +257,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,14 +309,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +611,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -746,12 +621,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -760,12 +635,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL12"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788E8B-CAB8-4367-99FC-CF2D134775AA}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,186 +648,534 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -999,21 +1222,12 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1060,21 +1274,12 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1121,19 +1326,10 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1182,19 +1378,10 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="7"/>
-      <c r="BH8" s="7"/>
-      <c r="BI8" s="7"/>
-      <c r="BJ8" s="7"/>
-      <c r="BK8" s="7"/>
-      <c r="BL8" s="7"/>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1243,19 +1430,10 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -1304,19 +1482,10 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -1365,19 +1534,10 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1426,17 +1586,6 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,222 +1606,109 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1683,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" activeCellId="1" sqref="F9 D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,63 +1741,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1791,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D4517-CBEA-43D4-A710-8B83EE44DC85}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,57 +1848,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,113 +1919,43 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2018,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2044,148 +2010,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,51 +2024,116 @@
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Team/shilpa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D230B-B68B-4EA6-88AB-65819EAB34E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{88D0BA2C-409A-435B-A0E1-7D2D59E31A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{407A02C3-0B5D-4D62-B741-2D445F359181}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,13 @@
     <sheet name="EPP_TC008" sheetId="12" r:id="rId9"/>
     <sheet name="EPP_TC009" sheetId="13" r:id="rId10"/>
     <sheet name="EPP_TC010" sheetId="14" r:id="rId11"/>
+    <sheet name="EPP_TC011" sheetId="15" r:id="rId12"/>
+    <sheet name="EPP_TC012" sheetId="16" r:id="rId13"/>
+    <sheet name="EPP_TC013" sheetId="17" r:id="rId14"/>
+    <sheet name="EPP_TC014" sheetId="18" r:id="rId15"/>
+    <sheet name="EPP_TC015" sheetId="19" r:id="rId16"/>
+    <sheet name="EPP_TC016" sheetId="20" r:id="rId17"/>
+    <sheet name="EPP_TC017" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="93">
   <si>
     <t>TestID</t>
   </si>
@@ -199,9 +206,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>11/13/21</t>
-  </si>
-  <si>
     <t>EPP_TC009</t>
   </si>
   <si>
@@ -214,17 +218,116 @@
     <t>EPP_TC010</t>
   </si>
   <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>1258</t>
+    <t>11/19/21</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>EPP_TC011</t>
+  </si>
+  <si>
+    <t>EPP_TC012</t>
+  </si>
+  <si>
+    <t>EPP_TC013</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>11/22/21</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>EPP_TC014</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>EPP_TC015</t>
+  </si>
+  <si>
+    <t>11/23/21</t>
+  </si>
+  <si>
+    <t>1222</t>
+  </si>
+  <si>
+    <t>EPP_TC016</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>EPP_TC017</t>
+  </si>
+  <si>
+    <t>11/24/21</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +345,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -285,10 +396,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,8 +422,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,10 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDC840-7BF6-43E0-9387-74045B013667}">
-  <dimension ref="A1:B5"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,26 +728,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="EPP_TC001!A1" display="TC001" xr:uid="{825E71DC-7ED3-470B-9158-CFC2A79B0E8D}"/>
+    <hyperlink ref="B3" location="EPP_TC002!A1" display="TC002" xr:uid="{20CB1654-01A9-45FF-A361-578D9A0D5F04}"/>
+    <hyperlink ref="B4:B18" location="EPP_TC002!A1" display="TC002" xr:uid="{9F7371ED-F6F9-4D0E-AD6B-FF917D7263C0}"/>
+    <hyperlink ref="B18" location="EPP_TC017!A1" display="TC017" xr:uid="{F470D784-92D9-4F2E-BB48-72E5AB1942FB}"/>
+    <hyperlink ref="B17" location="EPP_TC016!A1" display="TC016" xr:uid="{A9412A72-95FC-4D05-8626-1C43B6CCA75D}"/>
+    <hyperlink ref="B16" location="EPP_TC015!A1" display="TC015" xr:uid="{140F22D8-AE0E-4D29-B963-1E821284D1D7}"/>
+    <hyperlink ref="B15" location="EPP_TC014!A1" display="TC014" xr:uid="{7B4FA406-3F73-4F1A-AF13-BAC263EDEBD1}"/>
+    <hyperlink ref="B14" location="EPP_TC013!A1" display="TC013" xr:uid="{93692040-D128-4490-A9F8-E7CDB3C12523}"/>
+    <hyperlink ref="B13" location="EPP_TC012!A1" display="TC012" xr:uid="{D5085DC0-8353-463B-A0E9-2B9EBFDF73BB}"/>
+    <hyperlink ref="B12" location="EPP_TC011!A1" display="TC011" xr:uid="{0A0AAFA4-9A27-4733-AA8A-F7615E38F1BC}"/>
+    <hyperlink ref="B11" location="EPP_TC010!A1" display="TC010" xr:uid="{6E7FCB4E-549B-4A48-9996-E73177119A19}"/>
+    <hyperlink ref="B10" location="EPP_TC009!A1" display="TC009" xr:uid="{1B274D32-5A64-42DD-9FE5-24303F27CDC4}"/>
+    <hyperlink ref="B9" location="EPP_TC008!A1" display="TC008" xr:uid="{FEB8B5C5-D385-4CB6-91BC-8D3EEE9E83E2}"/>
+    <hyperlink ref="B8" location="EPP_TC007!A1" display="TC007" xr:uid="{5122D821-5E0D-43E8-81E1-1A36E10C0B01}"/>
+    <hyperlink ref="B7" location="EPP_TC006!A1" display="TC006" xr:uid="{A9F54F99-346C-4B11-A080-A1832882591F}"/>
+    <hyperlink ref="B6" location="EPP_TC005!A1" display="TC005" xr:uid="{BB963684-2333-4762-979C-7952F29AD453}"/>
+    <hyperlink ref="B5" location="EPP_TC004!A1" display="TC004" xr:uid="{89704193-559A-45E7-BBAB-BC96EC6CA363}"/>
+    <hyperlink ref="B4" location="EPP_TC003!A1" display="TC003" xr:uid="{16FF1CB7-86F3-4E0A-B811-64452C950C80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -702,7 +955,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -720,7 +973,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -738,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -849,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -916,7 +1169,7 @@
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -934,7 +1187,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -952,10 +1205,10 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1062,13 +1315,648 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1129,7 +2017,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1147,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1165,7 +2053,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -1589,6 +2477,2124 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1597,9 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1719,9 +4723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Team/shilpa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{88D0BA2C-409A-435B-A0E1-7D2D59E31A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{407A02C3-0B5D-4D62-B741-2D445F359181}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="95">
   <si>
     <t>TestID</t>
   </si>
@@ -239,21 +239,12 @@
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
     <t>1300</t>
   </si>
   <si>
     <t>11/22/21</t>
   </si>
   <si>
-    <t>605</t>
-  </si>
-  <si>
     <t>EPP_TC014</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
     <t>11/23/21</t>
   </si>
   <si>
-    <t>1222</t>
-  </si>
-  <si>
     <t>EPP_TC016</t>
   </si>
   <si>
@@ -321,6 +309,24 @@
   </si>
   <si>
     <t>TC017</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>12/01/21</t>
+  </si>
+  <si>
+    <t>021000022</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>809</t>
   </si>
 </sst>
 </file>
@@ -358,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +435,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -709,7 +724,7 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -763,7 +778,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,7 +786,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +794,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +802,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -795,7 +810,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -803,7 +818,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,7 +826,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -819,7 +834,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,39 +842,39 @@
         <v>62</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1319,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1632,10 +1647,10 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1827,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1845,7 +1860,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2017,7 +2032,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2035,7 +2050,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -2053,7 +2068,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -2485,7 +2500,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2562,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2556,7 +2571,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -2564,9 +2579,7 @@
       <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2582,9 +2595,7 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
@@ -3077,7 +3088,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -3095,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -3113,7 +3124,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -3607,7 +3618,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -3625,7 +3636,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -3643,7 +3654,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -4074,7 +4085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4144,7 +4157,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -4153,7 +4166,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -4171,11 +4184,13 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
+      <c r="D3" s="8">
+        <v>21000021</v>
+      </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D5" s="7"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE11717C-211E-420A-9990-25A4D4814253}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="105">
   <si>
     <t>TestID</t>
   </si>
@@ -203,9 +203,6 @@
     <t>11/11/21</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>EPP_TC009</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>1300</t>
-  </si>
-  <si>
     <t>11/22/21</t>
   </si>
   <si>
@@ -323,10 +317,46 @@
     <t>705</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>809</t>
+    <t>036002247</t>
+  </si>
+  <si>
+    <t>031207869</t>
+  </si>
+  <si>
+    <t>01/13/22</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>201300000509</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01/14/22</t>
+  </si>
+  <si>
+    <t>201300000510</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingF</t>
+  </si>
+  <si>
+    <t>1306 AVENUE OF THE AMERICAS</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingG</t>
+  </si>
+  <si>
+    <t>1307 AVENUE OF THE AMERICAS</t>
   </si>
 </sst>
 </file>
@@ -412,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +468,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,7 +809,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -786,7 +817,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -794,7 +825,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,79 +833,79 @@
         <v>47</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +1001,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -988,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1006,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1184,7 +1215,7 @@
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1202,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1220,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1397,7 +1428,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1415,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1433,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1544,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1642,7 @@
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1619,38 +1650,38 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>112225667</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1761,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1855,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1832,35 +1863,35 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>112225667</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1971,7 +2002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2032,7 +2065,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2040,39 +2073,592 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>112225666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>112225666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D5" s="7"/>
@@ -2495,12 +3081,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +3157,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -2579,7 +3165,9 @@
       <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2595,7 +3183,9 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
@@ -3021,12 +3611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3106,7 +3696,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -3124,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -3551,12 +4141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
-  <dimension ref="A1:BA12"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,7 +4165,7 @@
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3616,9 +4206,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -3626,145 +4216,166 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>112225666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1378082</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>112225666</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1378082</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>112225667</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1378082</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>112225667</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3775,838 +4386,52 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA12"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8">
+      <c r="M8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
         <v>21000021</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4925,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4945,7 +4770,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +4781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4966,13 +4791,6 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5027,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,15 +4856,16 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5057,16 +4876,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -5077,17 +4899,20 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5096,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5107,12 +4932,13 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5123,16 +4949,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5142,14 +4971,17 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
+      <c r="D2" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E256CA44-0415-4595-B4F3-8DE291A42CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="99">
   <si>
     <t>TestID</t>
   </si>
@@ -320,13 +320,25 @@
     <t>021000022</t>
   </si>
   <si>
-    <t>705</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>809</t>
+  </si>
+  <si>
+    <t>1/10/2022</t>
+  </si>
+  <si>
+    <t>036002247</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1378082</t>
+  </si>
+  <si>
+    <t>031207869</t>
   </si>
 </sst>
 </file>
@@ -412,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +450,8 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1544,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1629,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1650,7 +1664,7 @@
         <v>90</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4085,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4157,16 +4171,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
+      <c r="F2" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -4178,22 +4192,32 @@
         <v>48</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8">
-        <v>21000021</v>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4609,8 +4633,11 @@
       <c r="BA12" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="https://dovetail-cert.fiservapps.com/2eOarH06z7Vx2yNRMfwDJA==/PSH/ReferenceData.do?DataSetID=FedwireParticipantABA&amp;forward=viewDataSetItem&amp;ID=1159905739905433675&amp;state=Active&amp;inactivePageElement=FedwireParticipantABAInactive&amp;hash=-1162397808" xr:uid="{468EE559-008D-418A-956D-0C4A2ADB9021}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4738,7 +4765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E256CA44-0415-4595-B4F3-8DE291A42CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE11717C-211E-420A-9990-25A4D4814253}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="105">
   <si>
     <t>TestID</t>
   </si>
@@ -203,9 +203,6 @@
     <t>11/11/21</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>EPP_TC009</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>1300</t>
-  </si>
-  <si>
     <t>11/22/21</t>
   </si>
   <si>
@@ -320,25 +314,49 @@
     <t>021000022</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>1/10/2022</t>
+    <t>705</t>
   </si>
   <si>
     <t>036002247</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1378082</t>
-  </si>
-  <si>
     <t>031207869</t>
+  </si>
+  <si>
+    <t>01/13/22</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>201300000509</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01/14/22</t>
+  </si>
+  <si>
+    <t>201300000510</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingF</t>
+  </si>
+  <si>
+    <t>1306 AVENUE OF THE AMERICAS</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingG</t>
+  </si>
+  <si>
+    <t>1307 AVENUE OF THE AMERICAS</t>
   </si>
 </sst>
 </file>
@@ -424,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -450,8 +468,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,7 +809,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +817,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +825,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,79 +833,79 @@
         <v>47</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1001,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1002,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1020,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1198,7 +1215,7 @@
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1216,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1234,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1411,7 +1428,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1429,7 +1446,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -1447,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1559,7 +1576,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1642,7 @@
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1633,38 +1650,38 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>112225667</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1775,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,7 +1855,7 @@
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1846,35 +1863,35 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>112225667</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1985,7 +2002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2046,7 +2065,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2054,39 +2073,592 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>112225666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>112225666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D5" s="7"/>
@@ -2509,12 +3081,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,7 +3157,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -2593,7 +3165,9 @@
       <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +3183,9 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
@@ -3035,12 +3611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,7 +3696,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>19</v>
@@ -3138,7 +3714,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -3565,12 +4141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
-  <dimension ref="A1:BA12"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,7 +4165,7 @@
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3630,9 +4206,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -3640,145 +4216,166 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
+      <c r="D2" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+      <c r="F2">
+        <v>1378082</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>112225666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>1378082</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>112225666</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1378082</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>112225667</v>
+      </c>
+      <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1378082</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>112225667</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3789,855 +4386,56 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="8">
+        <v>21000021</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://dovetail-cert.fiservapps.com/2eOarH06z7Vx2yNRMfwDJA==/PSH/ReferenceData.do?DataSetID=FedwireParticipantABA&amp;forward=viewDataSetItem&amp;ID=1159905739905433675&amp;state=Active&amp;inactivePageElement=FedwireParticipantABAInactive&amp;hash=-1162397808" xr:uid="{468EE559-008D-418A-956D-0C4A2ADB9021}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4765,9 +4563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4954,10 +4750,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,7 +4770,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4985,7 +4781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4995,13 +4791,6 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5056,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,15 +4856,16 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5086,16 +4876,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -5106,17 +4899,20 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5125,10 +4921,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5136,12 +4932,13 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5152,16 +4949,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -5171,14 +4971,17 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
+      <c r="D2" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE11717C-211E-420A-9990-25A4D4814253}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFA4A99-C048-4EB1-BC3B-0B540216A223}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -32,17 +32,26 @@
     <sheet name="EPP_TC016" sheetId="20" r:id="rId17"/>
     <sheet name="EPP_TC017" sheetId="21" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="108">
   <si>
     <t>TestID</t>
   </si>
@@ -248,15 +257,9 @@
     <t>EPP_TC015</t>
   </si>
   <si>
-    <t>11/23/21</t>
-  </si>
-  <si>
     <t>EPP_TC016</t>
   </si>
   <si>
-    <t>1261</t>
-  </si>
-  <si>
     <t>EPP_TC017</t>
   </si>
   <si>
@@ -357,6 +360,21 @@
   </si>
   <si>
     <t>1307 AVENUE OF THE AMERICAS</t>
+  </si>
+  <si>
+    <t>01/19/22</t>
+  </si>
+  <si>
+    <t>201900000517</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingI</t>
+  </si>
+  <si>
+    <t>01/20/22</t>
+  </si>
+  <si>
+    <t>202000000519</t>
   </si>
 </sst>
 </file>
@@ -442,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +487,26 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -756,7 +794,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +847,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +855,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +863,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +871,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +879,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +887,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +895,7 @@
         <v>59</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +903,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +911,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +919,7 @@
         <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,23 +927,23 @@
         <v>67</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -936,10 +974,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788E8B-CAB8-4367-99FC-CF2D134775AA}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,63 +1047,95 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14">
+        <v>1378082</v>
+      </c>
+      <c r="G2" s="14">
+        <v>7</v>
+      </c>
+      <c r="H2" s="14">
+        <v>112225666</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7" s="7"/>
@@ -1139,6 +1209,30 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1146,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,19 +1251,20 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,40 +1275,43 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
@@ -1223,45 +1321,45 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="G2" s="14">
+        <v>1378082</v>
+      </c>
+      <c r="H2" s="14">
+        <v>7</v>
+      </c>
+      <c r="I2" s="14">
+        <v>112225666</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
+      <c r="N2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1271,9 +1369,513 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1378082</v>
+      </c>
+      <c r="H2" s="14">
+        <v>8</v>
+      </c>
+      <c r="I2" s="14">
+        <v>112225666</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>1378082</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>112225667</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1283,9 +1885,9 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1295,9 +1897,9 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1307,9 +1909,9 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1319,9 +1921,9 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1331,9 +1933,9 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1343,9 +1945,9 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1355,18 +1957,19 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
-  <dimension ref="A1:M12"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,18 +1977,19 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,39 +2000,42 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1436,42 +2043,42 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="G2">
+        <v>1378082</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>112225667</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
+      <c r="N2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1481,9 +2088,9 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1493,9 +2100,9 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1505,9 +2112,9 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1517,9 +2124,9 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1529,9 +2136,9 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1541,9 +2148,9 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1553,9 +2160,9 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1565,18 +2172,19 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
-  <dimension ref="A1:N12"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,19 +2192,19 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,42 +2215,42 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1650,57 +2258,80 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1378082</v>
       </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
       <c r="H2">
-        <v>112225667</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>112225666</v>
       </c>
       <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
+    <row r="5" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1710,9 +2341,49 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1722,9 +2393,49 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1734,9 +2445,49 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1746,9 +2497,49 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1758,9 +2549,49 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1770,9 +2601,49 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1782,228 +2653,59 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>1378082</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>112225667</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2767,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2074,7 +2776,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -2083,67 +2785,118 @@
         <v>1378082</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>112225666</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="D6" s="7"/>
@@ -2514,12 +3267,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
-  <dimension ref="A1:BA12"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,18 +3280,19 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,39 +3303,42 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2589,79 +3346,44 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="8">
         <v>1378082</v>
       </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>112225666</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>112225667</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
+      <c r="N2" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2711,9 +3433,9 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
+      <c r="BB5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2763,9 +3485,9 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2815,9 +3537,9 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2867,9 +3589,9 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2919,9 +3641,9 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2971,9 +3693,9 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="BB10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3023,9 +3745,9 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="BB11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3075,18 +3797,19 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
-  <dimension ref="A1:BA12"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
+  <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3094,18 +3817,19 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3116,37 +3840,40 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -3156,42 +3883,44 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3241,9 +3970,9 @@
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
+      <c r="BB5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3293,9 +4022,9 @@
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3345,9 +4074,9 @@
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3397,9 +4126,9 @@
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3449,9 +4178,9 @@
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3501,9 +4230,9 @@
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="BB10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3553,9 +4282,9 @@
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="BB11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3605,536 +4334,7 @@
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
-  <dimension ref="A1:BA12"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,7 +4343,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -4154,11 +4354,191 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1378082</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="I2" s="14">
+        <v>112225667</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="8">
+        <v>21000021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
@@ -4176,10 +4556,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -4188,13 +4568,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
@@ -4206,9 +4586,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -4216,343 +4596,52 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>1378082</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>112225666</v>
-      </c>
-      <c r="I2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>92</v>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>1378082</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>112225666</v>
-      </c>
-      <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>1378082</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>112225667</v>
-      </c>
-      <c r="I4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>1378082</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>112225667</v>
-      </c>
-      <c r="I5" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" t="s">
-        <v>104</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="8">
-        <v>21000021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4561,24 +4650,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4589,28 +4681,31 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4620,45 +4715,46 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4667,10 +4763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D4517-CBEA-43D4-A710-8B83EE44DC85}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,14 +4774,15 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4696,25 +4793,28 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4724,22 +4824,23 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4750,10 +4851,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6C225-5F63-43BC-9993-8FBD6FEAF794}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,7 +4862,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -4770,7 +4871,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4780,8 +4881,11 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4791,6 +4895,7 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4876,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -4899,13 +5004,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>50</v>
@@ -4924,7 +5029,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4949,7 +5054,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -4972,16 +5077,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFA4A99-C048-4EB1-BC3B-0B540216A223}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8FCF954-0570-4259-BC5C-7BA8D916D50C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="111">
   <si>
     <t>TestID</t>
   </si>
@@ -368,13 +368,22 @@
     <t>201900000517</t>
   </si>
   <si>
-    <t>Roginski ManufacturingI</t>
-  </si>
-  <si>
     <t>01/20/22</t>
   </si>
   <si>
     <t>202000000519</t>
+  </si>
+  <si>
+    <t>8306834</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingA</t>
+  </si>
+  <si>
+    <t>1301 AVENUE OF THE AMERICAS</t>
+  </si>
+  <si>
+    <t>01/31/22</t>
   </si>
 </sst>
 </file>
@@ -460,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,7 +504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3271,7 +3279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3347,12 +3355,12 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="8">
@@ -3370,14 +3378,14 @@
       <c r="K2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>106</v>
+      <c r="N2" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -4345,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4414,42 +4422,42 @@
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14">
-        <v>1378082</v>
-      </c>
-      <c r="H2" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="I2" s="14">
-        <v>112225667</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>112225661</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>103</v>
+      <c r="N2" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8FCF954-0570-4259-BC5C-7BA8D916D50C}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DC0A8E-49FC-44AE-ADA0-12B85F2F430A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -31,6 +31,9 @@
     <sheet name="EPP_TC015" sheetId="19" r:id="rId16"/>
     <sheet name="EPP_TC016" sheetId="20" r:id="rId17"/>
     <sheet name="EPP_TC017" sheetId="21" r:id="rId18"/>
+    <sheet name="EPP_TC018" sheetId="22" r:id="rId19"/>
+    <sheet name="EPP_TC019" sheetId="23" r:id="rId20"/>
+    <sheet name="EPP_TC020" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="119">
   <si>
     <t>TestID</t>
   </si>
@@ -384,6 +387,30 @@
   </si>
   <si>
     <t>01/31/22</t>
+  </si>
+  <si>
+    <t>EPP_TC018</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t>1275860</t>
+  </si>
+  <si>
+    <t>02/03/22</t>
+  </si>
+  <si>
+    <t>EPP_TC019</t>
+  </si>
+  <si>
+    <t>5510</t>
+  </si>
+  <si>
+    <t>EPP_TC020</t>
+  </si>
+  <si>
+    <t>5515</t>
   </si>
 </sst>
 </file>
@@ -3816,8 +3843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,11 +4376,546 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D7E08-93F2-4575-9ADD-02A7D57909D7}">
+  <dimension ref="A1:BB12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2">
+        <v>112225661</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -4526,6 +5088,1074 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
+  <dimension ref="A1:AZ12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2">
+        <v>112225661</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
+  <dimension ref="A1:BB12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2">
+        <v>112225661</v>
+      </c>
+      <c r="J2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4960,8 +6590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3DC0A8E-49FC-44AE-ADA0-12B85F2F430A}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E7D9ED9-AF79-4D8D-9F85-A39FFC7E1BCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="EPP_TC018" sheetId="22" r:id="rId19"/>
     <sheet name="EPP_TC019" sheetId="23" r:id="rId20"/>
     <sheet name="EPP_TC020" sheetId="24" r:id="rId21"/>
+    <sheet name="EPP_TC021" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
   <si>
     <t>TestID</t>
   </si>
@@ -398,19 +399,34 @@
     <t>1275860</t>
   </si>
   <si>
-    <t>02/03/22</t>
-  </si>
-  <si>
     <t>EPP_TC019</t>
   </si>
   <si>
-    <t>5510</t>
-  </si>
-  <si>
     <t>EPP_TC020</t>
   </si>
   <si>
     <t>5515</t>
+  </si>
+  <si>
+    <t>02/04/22</t>
+  </si>
+  <si>
+    <t>OrderingBankName</t>
+  </si>
+  <si>
+    <t>OSAMA Bin Laden</t>
+  </si>
+  <si>
+    <t>112225661</t>
+  </si>
+  <si>
+    <t>ReleaseReason</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>5511</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788E8B-CAB8-4367-99FC-CF2D134775AA}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="D2:M2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,999 +1038,7 @@
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="14">
-        <v>1378082</v>
-      </c>
-      <c r="G2" s="14">
-        <v>7</v>
-      </c>
-      <c r="H2" s="14">
-        <v>112225666</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="14">
-        <v>1378082</v>
-      </c>
-      <c r="H2" s="14">
-        <v>7</v>
-      </c>
-      <c r="I2" s="14">
-        <v>112225666</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="14">
-        <v>1378082</v>
-      </c>
-      <c r="H2" s="14">
-        <v>8</v>
-      </c>
-      <c r="I2" s="14">
-        <v>112225666</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
-  <dimension ref="A1:O12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>1378082</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>112225667</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2035,13 +1059,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -2070,7 +1094,7 @@
     </row>
     <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2078,68 +1102,102 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="14">
         <v>1378082</v>
       </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>112225667</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="H2" s="14">
+        <v>7</v>
+      </c>
+      <c r="I2" s="14">
+        <v>112225666</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
+      <c r="N2" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2150,8 +1208,8 @@
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2162,8 +1220,8 @@
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2174,8 +1232,8 @@
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2186,8 +1244,8 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2198,8 +1256,8 @@
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2209,17 +1267,794 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
-  <dimension ref="A1:BB12"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="14">
+        <v>1378082</v>
+      </c>
+      <c r="I2" s="14">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14">
+        <v>112225666</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="14">
+        <v>1378082</v>
+      </c>
+      <c r="I2" s="14">
+        <v>8</v>
+      </c>
+      <c r="J2" s="14">
+        <v>112225666</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2">
+        <v>1378082</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>112225667</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,6 +2065,760 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2">
+        <v>1378082</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>112225667</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
+  <dimension ref="A1:BC12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2">
+        <v>1378082</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>112225666</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
+  <dimension ref="A1:BB12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2250,13 +2839,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
@@ -2285,7 +2874,7 @@
     </row>
     <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2293,18 +2882,18 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="4"/>
       <c r="G2">
         <v>1378082</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>112225666</v>
@@ -2325,50 +2914,103 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -2419,8 +3061,8 @@
       <c r="BB6" s="7"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2471,8 +3113,8 @@
       <c r="BB7" s="7"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -2523,8 +3165,8 @@
       <c r="BB8" s="7"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2575,8 +3217,8 @@
       <c r="BB9" s="7"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2627,8 +3269,8 @@
       <c r="BB10" s="7"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2679,8 +3321,8 @@
       <c r="BB11" s="7"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2735,579 +3377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
-  <dimension ref="A1:BA12"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>1378082</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>112225666</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,16 +3393,17 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3347,31 +3423,34 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -3390,38 +3469,42 @@
       <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4"/>
+      <c r="H2" s="8">
         <v>1378082</v>
       </c>
-      <c r="H2" s="8">
+      <c r="I2" s="8">
         <v>7.5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>112225667</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3469,11 +3552,11 @@
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5" s="7"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3521,11 +3604,11 @@
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC6" s="7"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3573,11 +3656,11 @@
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="7"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -3625,11 +3708,11 @@
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="7"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC8" s="7"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -3677,11 +3760,11 @@
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -3729,11 +3812,11 @@
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -3781,11 +3864,11 @@
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -3833,6 +3916,7 @@
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3841,10 +3925,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3855,16 +3939,17 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3884,31 +3969,34 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -3927,38 +4015,42 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -4006,11 +4098,11 @@
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5" s="7"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -4058,11 +4150,11 @@
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC6" s="7"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -4110,11 +4202,11 @@
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="7"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -4162,11 +4254,11 @@
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="7"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC8" s="7"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -4214,11 +4306,11 @@
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4266,11 +4358,11 @@
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4318,11 +4410,11 @@
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -4370,6 +4462,7 @@
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4378,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D7E08-93F2-4575-9ADD-02A7D57909D7}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4392,16 +4485,17 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4421,31 +4515,34 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>111</v>
       </c>
@@ -4462,38 +4559,42 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>112225661</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>108</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="O2" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -4541,11 +4642,11 @@
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5" s="7"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -4593,11 +4694,11 @@
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC6" s="7"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -4645,11 +4746,11 @@
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="7"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -4697,11 +4798,11 @@
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="7"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC8" s="7"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -4749,11 +4850,11 @@
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -4801,11 +4902,11 @@
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -4853,11 +4954,11 @@
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -4905,6 +5006,7 @@
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4913,10 +5015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H2" sqref="H2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,16 +5029,17 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4956,31 +5059,34 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4997,37 +5103,38 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>112225661</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>108</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5038,8 +5145,9 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -5055,32 +5163,33 @@
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6" s="8">
         <v>21000021</v>
       </c>
@@ -5093,10 +5202,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
-  <dimension ref="A1:AZ12"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5107,16 +5216,18 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5136,33 +5247,39 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -5177,38 +5294,45 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2">
+      <c r="I2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2">
         <v>112225661</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>108</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="O2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -5254,11 +5378,11 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="7"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -5304,11 +5428,11 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -5354,11 +5478,11 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="7"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -5404,11 +5528,11 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="7"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -5454,11 +5578,11 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="7"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -5504,11 +5628,11 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -5554,11 +5678,11 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -5604,6 +5728,7 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5612,10 +5737,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5626,18 +5751,19 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5657,39 +5783,42 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -5704,44 +5833,48 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2">
+      <c r="I2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2">
         <v>112225661</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>108</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="O2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -5789,11 +5922,11 @@
       <c r="AZ5" s="7"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC5" s="7"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -5841,11 +5974,11 @@
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC6" s="7"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -5893,11 +6026,11 @@
       <c r="AZ7" s="7"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="7"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -5945,11 +6078,11 @@
       <c r="AZ8" s="7"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="7"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC8" s="7"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -5997,11 +6130,11 @@
       <c r="AZ9" s="7"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC9" s="7"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -6049,11 +6182,11 @@
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -6101,11 +6234,11 @@
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -6153,6 +6286,540 @@
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24893CEE-649B-447E-870D-FC059ADCDB14}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6403,8 +7070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78D4517-CBEA-43D4-A710-8B83EE44DC85}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6590,8 +7257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E7D9ED9-AF79-4D8D-9F85-A39FFC7E1BCC}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927220E9-F0C3-4B8C-9B19-EEF38C29D12D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="EPP_TC019" sheetId="23" r:id="rId20"/>
     <sheet name="EPP_TC020" sheetId="24" r:id="rId21"/>
     <sheet name="EPP_TC021" sheetId="25" r:id="rId22"/>
+    <sheet name="EPP_TC022" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="127">
   <si>
     <t>TestID</t>
   </si>
@@ -427,6 +428,15 @@
   </si>
   <si>
     <t>5511</t>
+  </si>
+  <si>
+    <t>02/08/22</t>
+  </si>
+  <si>
+    <t>EPP_TC022</t>
+  </si>
+  <si>
+    <t>EPP_TC021</t>
   </si>
 </sst>
 </file>
@@ -5204,8 +5214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,9 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6297,8 +6305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24893CEE-649B-447E-870D-FC059ADCDB14}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,7 +6380,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -6826,6 +6834,524 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06417B4-448D-4436-8960-A3A0B272BD79}">
+  <dimension ref="A1:AZ12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:M8"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFA4A99-C048-4EB1-BC3B-0B540216A223}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B6B3F-99F5-459C-B047-F35F0295614F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="111">
   <si>
     <t>TestID</t>
   </si>
@@ -375,6 +374,15 @@
   </si>
   <si>
     <t>202000000519</t>
+  </si>
+  <si>
+    <t>1288539</t>
+  </si>
+  <si>
+    <t>3602</t>
+  </si>
+  <si>
+    <t>01/28/22</t>
   </si>
 </sst>
 </file>
@@ -495,7 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -505,6 +512,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3271,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3349,10 +3359,10 @@
       <c r="D2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="8">
@@ -3370,13 +3380,13 @@
       <c r="K2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3808,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +3893,7 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4343,23 +4353,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
@@ -4414,24 +4424,24 @@
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="14">
-        <v>1378082</v>
-      </c>
-      <c r="H2" s="14">
-        <v>5.5</v>
+      <c r="G2" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="I2" s="14">
         <v>112225667</v>
@@ -4442,14 +4452,14 @@
       <c r="K2" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="21" t="s">
         <v>90</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -4515,6 +4525,11 @@
         <v>21000021</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>36002247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4526,14 +4541,14 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927220E9-F0C3-4B8C-9B19-EEF38C29D12D}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DFAB26C-4A67-4ADB-A096-6540D25F52F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="128">
   <si>
     <t>TestID</t>
   </si>
@@ -430,13 +430,16 @@
     <t>5511</t>
   </si>
   <si>
-    <t>02/08/22</t>
-  </si>
-  <si>
     <t>EPP_TC022</t>
   </si>
   <si>
     <t>EPP_TC021</t>
+  </si>
+  <si>
+    <t>02/09/22</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -5749,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -6838,8 +6841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06417B4-448D-4436-8960-A3A0B272BD79}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6909,7 +6912,7 @@
     </row>
     <row r="2" spans="1:52" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -6927,7 +6930,7 @@
         <v>107</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>120</v>
@@ -6945,7 +6948,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DFAB26C-4A67-4ADB-A096-6540D25F52F0}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57C1AF9-5292-4736-B051-343364522CF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="129">
   <si>
     <t>TestID</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>02/11/22</t>
   </si>
 </sst>
 </file>
@@ -4486,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D7E08-93F2-4575-9ADD-02A7D57909D7}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,7 +5755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5867,10 +5872,10 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>95</v>
@@ -6308,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24893CEE-649B-447E-870D-FC059ADCDB14}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6842,7 +6847,7 @@
   <dimension ref="A1:AZ12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A57C1AF9-5292-4736-B051-343364522CF0}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF30832-4A2D-40F3-893E-45F0BDD21EFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="128">
   <si>
     <t>TestID</t>
   </si>
@@ -436,13 +436,10 @@
     <t>EPP_TC021</t>
   </si>
   <si>
-    <t>02/09/22</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>02/11/22</t>
+  </si>
+  <si>
+    <t>02/15/22</t>
   </si>
 </sst>
 </file>
@@ -5872,10 +5869,10 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>95</v>
@@ -6846,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06417B4-448D-4436-8960-A3A0B272BD79}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6935,7 +6932,7 @@
         <v>107</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>120</v>
@@ -6953,7 +6950,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF30832-4A2D-40F3-893E-45F0BDD21EFA}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12299AC1-7431-46BB-B8E6-AD6BD6728DEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -436,10 +436,10 @@
     <t>EPP_TC021</t>
   </si>
   <si>
-    <t>02/11/22</t>
-  </si>
-  <si>
     <t>02/15/22</t>
+  </si>
+  <si>
+    <t>02/17/22</t>
   </si>
 </sst>
 </file>
@@ -4487,7 +4487,7 @@
   <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:O2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,8 +5217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:P2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,8 +5752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5869,10 +5869,10 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>95</v>
@@ -6843,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06417B4-448D-4436-8960-A3A0B272BD79}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6950,7 +6950,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12299AC1-7431-46BB-B8E6-AD6BD6728DEF}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1802C93-D7CD-4983-956F-292536532592}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="129">
   <si>
     <t>TestID</t>
   </si>
@@ -196,9 +196,6 @@
     <t>EPP_TC007</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>EPP_TC008</t>
   </si>
   <si>
@@ -208,15 +205,9 @@
     <t>UpdatedAmount</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>ApprovalDate</t>
   </si>
   <si>
-    <t>11/11/21</t>
-  </si>
-  <si>
     <t>EPP_TC009</t>
   </si>
   <si>
@@ -268,12 +259,6 @@
     <t>EPP_TC017</t>
   </si>
   <si>
-    <t>11/24/21</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
     <t>TC005</t>
   </si>
   <si>
@@ -331,30 +316,15 @@
     <t>031207869</t>
   </si>
   <si>
-    <t>01/13/22</t>
-  </si>
-  <si>
     <t>TransactionID</t>
   </si>
   <si>
-    <t>201300000509</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>01/14/22</t>
-  </si>
-  <si>
-    <t>201300000510</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Roginski ManufacturingF</t>
   </si>
   <si>
@@ -367,18 +337,6 @@
     <t>1307 AVENUE OF THE AMERICAS</t>
   </si>
   <si>
-    <t>01/19/22</t>
-  </si>
-  <si>
-    <t>201900000517</t>
-  </si>
-  <si>
-    <t>01/20/22</t>
-  </si>
-  <si>
-    <t>202000000519</t>
-  </si>
-  <si>
     <t>8306834</t>
   </si>
   <si>
@@ -388,30 +346,15 @@
     <t>1301 AVENUE OF THE AMERICAS</t>
   </si>
   <si>
-    <t>01/31/22</t>
-  </si>
-  <si>
     <t>EPP_TC018</t>
   </si>
   <si>
-    <t>5500</t>
-  </si>
-  <si>
-    <t>1275860</t>
-  </si>
-  <si>
     <t>EPP_TC019</t>
   </si>
   <si>
     <t>EPP_TC020</t>
   </si>
   <si>
-    <t>5515</t>
-  </si>
-  <si>
-    <t>02/04/22</t>
-  </si>
-  <si>
     <t>OrderingBankName</t>
   </si>
   <si>
@@ -427,19 +370,79 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>5511</t>
-  </si>
-  <si>
     <t>EPP_TC022</t>
   </si>
   <si>
     <t>EPP_TC021</t>
   </si>
   <si>
-    <t>02/15/22</t>
-  </si>
-  <si>
-    <t>02/17/22</t>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>FieldValue_1</t>
+  </si>
+  <si>
+    <t>FieldName_1</t>
+  </si>
+  <si>
+    <t>1839667</t>
+  </si>
+  <si>
+    <t>1288539</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1,3,1.5,2.5</t>
+  </si>
+  <si>
+    <t>204900001622</t>
+  </si>
+  <si>
+    <t>205300001688</t>
+  </si>
+  <si>
+    <t>1378082</t>
+  </si>
+  <si>
+    <t>02/23/22</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingB</t>
+  </si>
+  <si>
+    <t>205400001726</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>205400001727</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingAB</t>
+  </si>
+  <si>
+    <t>02/24/22</t>
+  </si>
+  <si>
+    <t>Roginski ManufacturingBA</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,6 +572,22 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -855,159 +874,1229 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f>EPP_TC001!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G2">
+        <f>EPP_TC001!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <f>EPP_TC001!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I2" t="str">
+        <f>EPP_TC001!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J2">
+        <f>EPP_TC001!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <f>EPP_TC001!H2</f>
+        <v>1378082</v>
+      </c>
+      <c r="L2">
+        <f>EPP_TC001!I2</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>EPP_TC001!J2</f>
+        <v>112225661</v>
+      </c>
+      <c r="N2" t="str">
+        <f>EPP_TC001!K2</f>
+        <v>Roginski ManufacturingA</v>
+      </c>
+      <c r="O2" t="str">
+        <f>EPP_TC001!L2</f>
+        <v>1301 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P2" t="str">
+        <f>EPP_TC001!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>EPP_TC001!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R2" t="str">
+        <f>EPP_TC001!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="str">
+        <f>EPP_TC002!M2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G3">
+        <f>EPP_TC002!D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>EPP_TC003!K2</f>
+        <v>02/23/22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f>EPP_TC004!J2</f>
+        <v>02/23/22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="str">
+        <f>EPP_TC005!D2</f>
+        <v>204900001622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="str">
+        <f>EPP_TC006!D2</f>
+        <v>205300001688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="str">
+        <f>EPP_TC007!F2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G8" t="str">
+        <f>EPP_TC007!D2</f>
+        <v>205400001727</v>
+      </c>
+      <c r="L8">
+        <f>EPP_TC007!E2</f>
+        <v>1</v>
+      </c>
+      <c r="R8" t="str">
+        <f>EPP_TC007!F2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S8" t="str">
+        <f>EPP_TC007!G2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="str">
+        <f>EPP_TC008!F2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G9" t="str">
+        <f>EPP_TC008!D2</f>
+        <v>205400001726</v>
+      </c>
+      <c r="L9" t="str">
+        <f>EPP_TC008!E2</f>
+        <v>2</v>
+      </c>
+      <c r="R9" t="str">
+        <f>EPP_TC008!F2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S9" t="str">
+        <f>EPP_TC008!G2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="22" t="str">
+        <f>EPP_TC009!O2</f>
+        <v>02/24/22</v>
+      </c>
+      <c r="H10" t="str">
+        <f>EPP_TC009!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I10" t="str">
+        <f>EPP_TC009!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J10">
+        <f>EPP_TC009!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>EPP_TC009!H2</f>
+        <v>1378082</v>
+      </c>
+      <c r="L10">
+        <f>EPP_TC009!I2</f>
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <f>EPP_TC009!J2</f>
+        <v>112225666</v>
+      </c>
+      <c r="N10" t="str">
+        <f>EPP_TC009!K2</f>
+        <v>Roginski ManufacturingAB</v>
+      </c>
+      <c r="O10" t="str">
+        <f>EPP_TC009!L2</f>
+        <v>1306 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P10" t="str">
+        <f>EPP_TC009!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>EPP_TC009!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R10" t="str">
+        <f>EPP_TC009!O2</f>
+        <v>02/24/22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="22" t="str">
+        <f>EPP_TC010!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G11">
+        <f>EPP_TC010!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f>EPP_TC010!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I11" t="str">
+        <f>EPP_TC010!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J11">
+        <f>EPP_TC010!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>EPP_TC010!H2</f>
+        <v>1378082</v>
+      </c>
+      <c r="L11">
+        <f>EPP_TC010!I2</f>
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <f>EPP_TC010!J2</f>
+        <v>112225666</v>
+      </c>
+      <c r="N11" t="str">
+        <f>EPP_TC010!K2</f>
+        <v>Roginski ManufacturingF</v>
+      </c>
+      <c r="O11" t="str">
+        <f>EPP_TC010!L2</f>
+        <v>1306 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P11" t="str">
+        <f>EPP_TC010!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>EPP_TC010!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R11" t="str">
+        <f>EPP_TC010!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S11" t="str">
+        <f>EPP_TC010!P2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f>EPP_TC011!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G12">
+        <f>EPP_TC011!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f>EPP_TC011!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I12" t="str">
+        <f>EPP_TC011!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J12">
+        <f>EPP_TC011!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>EPP_TC011!H2</f>
+        <v>1378082</v>
+      </c>
+      <c r="L12">
+        <f>EPP_TC011!I2</f>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f>EPP_TC011!J2</f>
+        <v>112225666</v>
+      </c>
+      <c r="N12" t="str">
+        <f>EPP_TC011!K2</f>
+        <v>Roginski ManufacturingF</v>
+      </c>
+      <c r="O12" t="str">
+        <f>EPP_TC011!L2</f>
+        <v>1306 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P12" t="str">
+        <f>EPP_TC011!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>EPP_TC011!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R12" t="str">
+        <f>EPP_TC011!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S12">
+        <f>EPP_TC011!P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="22" t="str">
+        <f>EPP_TC012!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G13">
+        <f>EPP_TC012!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f>EPP_TC012!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I13" t="str">
+        <f>EPP_TC012!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J13">
+        <f>EPP_TC012!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <f>EPP_TC012!H2</f>
+        <v>1839667</v>
+      </c>
+      <c r="L13">
+        <f>EPP_TC012!I2</f>
+        <v>8.5</v>
+      </c>
+      <c r="M13">
+        <f>EPP_TC012!J2</f>
+        <v>112225667</v>
+      </c>
+      <c r="N13" t="str">
+        <f>EPP_TC012!K2</f>
+        <v>Roginski ManufacturingG</v>
+      </c>
+      <c r="O13" t="str">
+        <f>EPP_TC012!L2</f>
+        <v>1307 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P13" t="str">
+        <f>EPP_TC012!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>EPP_TC012!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R13" t="str">
+        <f>EPP_TC012!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S13" t="str">
+        <f>EPP_TC012!P2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f>EPP_TC013!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G14">
+        <f>-EPP_TC013!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H14" t="str">
+        <f>EPP_TC013!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I14" t="str">
+        <f>EPP_TC013!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J14">
+        <f>EPP_TC013!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <f>EPP_TC013!H2</f>
+        <v>1839667</v>
+      </c>
+      <c r="L14">
+        <f>EPP_TC013!I2</f>
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <f>EPP_TC013!J2</f>
+        <v>112225667</v>
+      </c>
+      <c r="N14" t="str">
+        <f>EPP_TC013!K2</f>
+        <v>Roginski ManufacturingG</v>
+      </c>
+      <c r="O14" t="str">
+        <f>EPP_TC013!L2</f>
+        <v>1307 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P14" t="str">
+        <f>EPP_TC013!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>EPP_TC013!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R14" t="str">
+        <f>EPP_TC013!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S14">
+        <f>-EPP_TC013!P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f>EPP_TC014!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G15">
+        <f>EPP_TC014!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H15" t="str">
+        <f>EPP_TC014!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I15" t="str">
+        <f>EPP_TC014!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J15">
+        <f>EPP_TC014!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <f>EPP_TC014!H2</f>
+        <v>1839667</v>
+      </c>
+      <c r="L15">
+        <f>EPP_TC014!I2</f>
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <f>EPP_TC014!J2</f>
+        <v>112225666</v>
+      </c>
+      <c r="N15" t="str">
+        <f>EPP_TC014!K2</f>
+        <v>Roginski ManufacturingF</v>
+      </c>
+      <c r="O15" t="str">
+        <f>EPP_TC014!L2</f>
+        <v>1306 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P15" t="str">
+        <f>EPP_TC014!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>EPP_TC014!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R15" t="str">
+        <f>EPP_TC014!O2</f>
+        <v>02/23/22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f>EPP_TC015!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="H16" t="str">
+        <f>EPP_TC015!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I16" t="str">
+        <f>EPP_TC015!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J16">
+        <f>EPP_TC015!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <f>EPP_TC015!H2</f>
+        <v>1839667</v>
+      </c>
+      <c r="L16">
+        <f>EPP_TC015!I2</f>
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <f>EPP_TC015!J2</f>
+        <v>112225666</v>
+      </c>
+      <c r="N16" t="str">
+        <f>EPP_TC015!K2</f>
+        <v>Roginski ManufacturingF</v>
+      </c>
+      <c r="O16" t="str">
+        <f>EPP_TC015!L2</f>
+        <v>1306 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P16" t="str">
+        <f>EPP_TC015!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>EPP_TC015!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R16" t="str">
+        <f>EPP_TC015!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S16">
+        <f>EPP_TC015!P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f>EPP_TC016!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G17">
+        <f>EPP_TC016!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H17" t="str">
+        <f>EPP_TC016!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I17" t="str">
+        <f>EPP_TC016!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J17">
+        <f>EPP_TC016!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>EPP_TC016!H2</f>
+        <v>1378082</v>
+      </c>
+      <c r="L17">
+        <f>EPP_TC016!I2</f>
+        <v>7.5</v>
+      </c>
+      <c r="M17">
+        <f>EPP_TC016!J2</f>
+        <v>112225667</v>
+      </c>
+      <c r="N17" t="str">
+        <f>EPP_TC016!K2</f>
+        <v>Roginski ManufacturingG</v>
+      </c>
+      <c r="O17" t="str">
+        <f>EPP_TC016!L2</f>
+        <v>1307 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P17" t="str">
+        <f>EPP_TC016!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>EPP_TC016!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R17" t="str">
+        <f>EPP_TC016!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S17">
+        <f>EPP_TC016!P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>84</v>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f>EPP_TC017!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G18">
+        <f>EPP_TC017!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H18" t="str">
+        <f>EPP_TC017!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I18" t="str">
+        <f>EPP_TC017!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J18">
+        <f>EPP_TC017!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>EPP_TC017!H2</f>
+        <v>1378082</v>
+      </c>
+      <c r="L18">
+        <f>EPP_TC017!I2</f>
+        <v>4.5</v>
+      </c>
+      <c r="M18">
+        <f>EPP_TC017!J2</f>
+        <v>112225666</v>
+      </c>
+      <c r="N18" t="str">
+        <f>EPP_TC017!K2</f>
+        <v>Roginski ManufacturingBA</v>
+      </c>
+      <c r="O18" t="str">
+        <f>EPP_TC017!L2</f>
+        <v>1306 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P18" t="str">
+        <f>EPP_TC017!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>EPP_TC017!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R18" t="str">
+        <f>EPP_TC017!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S18">
+        <f>EPP_TC017!P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="22" t="str">
+        <f>EPP_TC018!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G19">
+        <f>EPP_TC018!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <f>EPP_TC018!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I19" t="str">
+        <f>EPP_TC018!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J19">
+        <f>EPP_TC018!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <f>EPP_TC018!H2</f>
+        <v>1288539</v>
+      </c>
+      <c r="L19">
+        <f>EPP_TC018!I2</f>
+        <v>3005</v>
+      </c>
+      <c r="M19">
+        <f>EPP_TC018!J2</f>
+        <v>112225661</v>
+      </c>
+      <c r="N19" t="str">
+        <f>EPP_TC018!K2</f>
+        <v>Roginski ManufacturingA</v>
+      </c>
+      <c r="O19" t="str">
+        <f>EPP_TC018!L2</f>
+        <v>1301 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P19" t="str">
+        <f>EPP_TC018!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>EPP_TC018!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R19" t="str">
+        <f>EPP_TC018!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S19">
+        <f>EPP_TC018!P2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="22" t="str">
+        <f>EPP_TC019!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G20">
+        <f>EPP_TC019!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <f>EPP_TC019!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I20" t="str">
+        <f>EPP_TC019!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J20">
+        <f>EPP_TC019!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
+        <f>EPP_TC019!H2</f>
+        <v>1288539</v>
+      </c>
+      <c r="L20">
+        <f>EPP_TC019!I2</f>
+        <v>3010</v>
+      </c>
+      <c r="M20">
+        <f>EPP_TC019!J2</f>
+        <v>112225661</v>
+      </c>
+      <c r="N20" t="str">
+        <f>EPP_TC019!K2</f>
+        <v>Roginski ManufacturingA</v>
+      </c>
+      <c r="O20" t="str">
+        <f>EPP_TC019!L2</f>
+        <v>1301 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P20" t="str">
+        <f>EPP_TC019!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>EPP_TC019!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R20" t="str">
+        <f>EPP_TC019!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S20" t="str">
+        <f>EPP_TC019!P2</f>
+        <v>Testing</v>
+      </c>
+      <c r="T20">
+        <f>EPP_TC019!Q2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="22" t="str">
+        <f>EPP_TC020!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G21">
+        <f>EPP_TC020!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="str">
+        <f>EPP_TC020!E2</f>
+        <v>036002247</v>
+      </c>
+      <c r="I21" t="str">
+        <f>EPP_TC020!F2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="J21">
+        <f>EPP_TC020!G2</f>
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <f>EPP_TC020!H2</f>
+        <v>1288539</v>
+      </c>
+      <c r="L21">
+        <f>EPP_TC020!I2</f>
+        <v>3005</v>
+      </c>
+      <c r="M21">
+        <f>EPP_TC020!J2</f>
+        <v>112225661</v>
+      </c>
+      <c r="N21" t="str">
+        <f>EPP_TC020!K2</f>
+        <v>Roginski ManufacturingA</v>
+      </c>
+      <c r="O21" t="str">
+        <f>EPP_TC020!L2</f>
+        <v>1301 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P21" t="str">
+        <f>EPP_TC020!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>EPP_TC020!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R21" t="str">
+        <f>EPP_TC020!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S21" t="str">
+        <f>EPP_TC020!P2</f>
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <f>EPP_TC020!Q2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f>EPP_TC021!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G22">
+        <f>EPP_TC021!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>EPP_TC021!E2</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>EPP_TC021!F2</f>
+        <v>0</v>
+      </c>
+      <c r="J22" t="str">
+        <f>EPP_TC021!G2</f>
+        <v>OSAMA Bin Laden</v>
+      </c>
+      <c r="K22" t="str">
+        <f>EPP_TC021!H2</f>
+        <v>8306834</v>
+      </c>
+      <c r="L22" t="str">
+        <f>EPP_TC021!I2</f>
+        <v>5</v>
+      </c>
+      <c r="M22" t="str">
+        <f>EPP_TC021!J2</f>
+        <v>112225661</v>
+      </c>
+      <c r="N22" t="str">
+        <f>EPP_TC021!K2</f>
+        <v>Roginski ManufacturingA</v>
+      </c>
+      <c r="O22" t="str">
+        <f>EPP_TC021!L2</f>
+        <v>1301 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P22" t="str">
+        <f>EPP_TC021!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>EPP_TC021!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R22" t="str">
+        <f>EPP_TC021!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S22" t="str">
+        <f>EPP_TC021!P2</f>
+        <v>Testing</v>
+      </c>
+      <c r="T22">
+        <f>EPP_TC021!Q2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="22" t="str">
+        <f>EPP_TC022!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="G23">
+        <f>EPP_TC022!D2</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>EPP_TC022!E2</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>EPP_TC022!F2</f>
+        <v>0</v>
+      </c>
+      <c r="J23" t="str">
+        <f>EPP_TC022!G2</f>
+        <v>OSAMA Bin Laden</v>
+      </c>
+      <c r="K23" t="str">
+        <f>EPP_TC022!H2</f>
+        <v>8306834</v>
+      </c>
+      <c r="L23" t="str">
+        <f>EPP_TC022!I2</f>
+        <v>2</v>
+      </c>
+      <c r="M23" t="str">
+        <f>EPP_TC022!J2</f>
+        <v>112225661</v>
+      </c>
+      <c r="N23" t="str">
+        <f>EPP_TC022!K2</f>
+        <v>Roginski ManufacturingA</v>
+      </c>
+      <c r="O23" t="str">
+        <f>EPP_TC022!L2</f>
+        <v>1301 AVENUE OF THE AMERICAS</v>
+      </c>
+      <c r="P23" t="str">
+        <f>EPP_TC022!M2</f>
+        <v>031207869</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>EPP_TC022!N2</f>
+        <v>ABA (American Bankers Association) Fedwire Routing Number</v>
+      </c>
+      <c r="R23" t="str">
+        <f>EPP_TC022!O2</f>
+        <v>02/23/22</v>
+      </c>
+      <c r="S23">
+        <f>EPP_TC022!P2</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>EPP_TC022!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>EPP_TC022!R2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1031,6 +2120,11 @@
     <hyperlink ref="B6" location="EPP_TC005!A1" display="TC005" xr:uid="{BB963684-2333-4762-979C-7952F29AD453}"/>
     <hyperlink ref="B5" location="EPP_TC004!A1" display="TC004" xr:uid="{89704193-559A-45E7-BBAB-BC96EC6CA363}"/>
     <hyperlink ref="B4" location="EPP_TC003!A1" display="TC003" xr:uid="{16FF1CB7-86F3-4E0A-B811-64452C950C80}"/>
+    <hyperlink ref="B19" location="EPP_TC018!A1" display="TC018" xr:uid="{83CD0CD2-4D86-4C89-A93F-D6E4081166A1}"/>
+    <hyperlink ref="B20" location="EPP_TC019!A1" display="TC019" xr:uid="{25902229-59F3-466C-A7D8-27FB58903812}"/>
+    <hyperlink ref="B21" location="EPP_TC020!A1" display="TC020" xr:uid="{889812B4-62EE-4D94-A448-DBE5C3398F8A}"/>
+    <hyperlink ref="B22" location="EPP_TC021!A1" display="TC021" xr:uid="{A2ABEA0D-A8ED-411B-A69A-B31DC22FF0F7}"/>
+    <hyperlink ref="B23" location="EPP_TC022!A1" display="TC022" xr:uid="{1D482EC0-F77E-4544-8E2C-66EB0C1AEB46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1038,10 +2132,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788E8B-CAB8-4367-99FC-CF2D134775AA}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,19 +2143,20 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,42 +2167,45 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1115,56 +2213,58 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="14">
+      <c r="G2" s="4"/>
+      <c r="H2" s="14">
         <v>1378082</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>7</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>112225666</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="K2" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="2"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
@@ -1172,46 +2272,46 @@
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="8"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
+      <c r="O4" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E5" s="8"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1219,11 +2319,11 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -1231,11 +2331,11 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -1243,11 +2343,11 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -1255,11 +2355,11 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1267,11 +2367,11 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -1279,11 +2379,11 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1291,11 +2391,11 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1303,6 +2403,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,7 +2415,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1356,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -1383,12 +2484,12 @@
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1398,7 +2499,7 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -1414,19 +2515,19 @@
         <v>112225666</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>42</v>
@@ -1453,7 +2554,7 @@
     </row>
     <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -1472,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>19</v>
@@ -1481,7 +2582,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>20</v>
@@ -1490,10 +2591,10 @@
         <v>15</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1577,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3350CD95-5EF7-49AA-9DBB-CE5402A87B98}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1619,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -1648,7 +2749,7 @@
     </row>
     <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1656,11 +2757,9 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>15</v>
@@ -1676,19 +2775,19 @@
         <v>112225666</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1713,7 +2812,7 @@
     </row>
     <row r="6" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -1732,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>19</v>
@@ -1741,7 +2840,7 @@
         <v>17</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>20</v>
@@ -1750,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1834,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51687266-79D6-4CFF-B847-6B0A93B68022}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1877,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -1904,12 +3003,12 @@
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1919,38 +3018,38 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2">
-        <v>1378082</v>
+      <c r="H2" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2">
         <v>112225667</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2066,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777029FF-A5B6-442E-968C-F326A687C24C}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,7 +3198,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -2108,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -2137,7 +3236,7 @@
     </row>
     <row r="2" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2147,14 +3246,14 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2">
-        <v>1378082</v>
+      <c r="H2" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="I2">
         <v>9</v>
@@ -2163,19 +3262,19 @@
         <v>112225667</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2290,8 +3389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6A3664-EB3B-4CCA-8D6F-7225BC1F8AF4}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -2332,7 +3431,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -2361,7 +3460,7 @@
     </row>
     <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -2371,35 +3470,35 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2">
-        <v>1378082</v>
+      <c r="H2" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>112225666</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -2407,7 +3506,7 @@
     </row>
     <row r="5" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -2426,7 +3525,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>19</v>
@@ -2435,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>20</v>
@@ -2444,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -2818,584 +3917,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D9BB45-679B-43DA-AD88-C03766FC2897}">
-  <dimension ref="A1:BB12"/>
+  <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2">
-        <v>1378082</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>112225666</v>
-      </c>
-      <c r="J2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
-  <dimension ref="A1:BC12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3436,7 +3961,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -3465,7 +3990,7 @@
     </row>
     <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -3473,46 +3998,80 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>112225666</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="8">
-        <v>1378082</v>
-      </c>
-      <c r="I2" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="J2" s="8">
-        <v>112225667</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>105</v>
+      <c r="O2" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="7"/>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E5" s="7"/>
@@ -3936,12 +4495,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3973,7 +4532,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3982,7 +4541,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -4011,7 +4570,7 @@
     </row>
     <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -4019,39 +4578,37 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="H2" s="8">
+        <v>1378082</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="J2" s="8">
+        <v>112225667</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>70</v>
+      <c r="O2" s="20" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -4482,12 +5039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D7E08-93F2-4575-9ADD-02A7D57909D7}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97AB33-FC6D-4879-8F47-8EBF14DC0BE0}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4519,7 +5076,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4528,7 +5085,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -4557,7 +5114,7 @@
     </row>
     <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -4566,36 +5123,36 @@
         <v>31</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2">
-        <v>112225661</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="27">
+        <v>1378082</v>
+      </c>
+      <c r="I2" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="J2" s="27">
+        <v>112225666</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>117</v>
+      <c r="O2" s="28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -5026,12 +5583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020D7E08-93F2-4575-9ADD-02A7D57909D7}">
+  <dimension ref="A1:BC12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:N2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,730 +5609,6 @@
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>112225661</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="8">
-        <v>21000021</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
-  <dimension ref="A1:BA12"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2">
-        <v>112225661</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
-  <dimension ref="A1:BC12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
@@ -5787,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5796,7 +5629,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -5822,60 +5655,48 @@
       <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:55" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3005</v>
       </c>
       <c r="J2">
         <v>112225661</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -6306,12 +6127,237 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24893CEE-649B-447E-870D-FC059ADCDB14}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>112225661</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>112225661</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="8">
+        <v>21000021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E28C897-40E4-4FB1-9B8F-A960AAFACB28}">
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:P2"/>
+      <selection activeCell="E2" sqref="E2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6344,7 +6390,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -6353,7 +6399,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -6380,12 +6426,12 @@
         <v>22</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -6394,37 +6440,39 @@
         <v>31</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="E2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3010</v>
+      </c>
+      <c r="J2">
+        <v>112225661</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -6839,12 +6887,1088 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
+  <dimension ref="A1:BB12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3005</v>
+      </c>
+      <c r="J2">
+        <v>112225661</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24893CEE-649B-447E-870D-FC059ADCDB14}">
+  <dimension ref="A1:BA12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06417B4-448D-4436-8960-A3A0B272BD79}">
   <dimension ref="A1:AZ12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6876,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -6885,7 +8009,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -6914,7 +8038,7 @@
     </row>
     <row r="2" spans="1:52" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -6926,31 +8050,31 @@
       <c r="E2" s="11"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
@@ -7362,7 +8486,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7392,7 +8516,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
@@ -7457,8 +8581,8 @@
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>52</v>
+      <c r="M2" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7488,8 +8612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1918199-7E3A-4323-8C10-36C29A5B5E5C}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7517,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
@@ -7571,7 +8695,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7602,7 +8726,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7629,7 +8753,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
@@ -7677,7 +8801,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7690,7 +8814,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,7 +8842,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7731,7 +8855,9 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7742,8 +8868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3095139-3849-4A61-ADF7-1C18231D624A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7765,6 +8891,9 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -7776,7 +8905,9 @@
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
   </sheetData>
@@ -7788,8 +8919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11E113-21EA-4C4D-A793-3B606F72173F}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,16 +8948,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7840,16 +8971,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>125</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7864,8 +8995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CBD94B-4A03-44BE-9B34-689C34C8DA4A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7890,21 +9021,21 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -7913,16 +9044,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="493" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1802C93-D7CD-4983-956F-292536532592}"/>
+  <xr:revisionPtr revIDLastSave="499" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF589BD7-D242-4A14-AECD-F3AF2DB44816}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="128">
   <si>
     <t>TestID</t>
   </si>
@@ -416,9 +416,6 @@
   </si>
   <si>
     <t>1378082</t>
-  </si>
-  <si>
-    <t>02/23/22</t>
   </si>
   <si>
     <t>Roginski ManufacturingB</t>
@@ -962,7 +959,7 @@
       </c>
       <c r="F2" s="22" t="str">
         <f>EPP_TC001!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G2">
         <f>EPP_TC001!D2</f>
@@ -1010,7 +1007,7 @@
       </c>
       <c r="R2" t="str">
         <f>EPP_TC001!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S2" t="s">
         <v>116</v>
@@ -1028,7 +1025,7 @@
       </c>
       <c r="F3" t="str">
         <f>EPP_TC002!M2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G3">
         <f>EPP_TC002!D2</f>
@@ -1047,7 +1044,7 @@
       </c>
       <c r="F4" s="22" t="str">
         <f>EPP_TC003!K2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1062,7 +1059,7 @@
       </c>
       <c r="F5" s="22" t="str">
         <f>EPP_TC004!J2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1107,7 +1104,7 @@
       </c>
       <c r="F8" t="str">
         <f>EPP_TC007!F2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G8" t="str">
         <f>EPP_TC007!D2</f>
@@ -1119,7 +1116,7 @@
       </c>
       <c r="R8" t="str">
         <f>EPP_TC007!F2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S8" t="str">
         <f>EPP_TC007!G2</f>
@@ -1138,7 +1135,7 @@
       </c>
       <c r="F9" t="str">
         <f>EPP_TC008!F2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G9" t="str">
         <f>EPP_TC008!D2</f>
@@ -1150,7 +1147,7 @@
       </c>
       <c r="R9" t="str">
         <f>EPP_TC008!F2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S9" t="str">
         <f>EPP_TC008!G2</f>
@@ -1228,7 +1225,7 @@
       </c>
       <c r="F11" s="22" t="str">
         <f>EPP_TC010!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G11">
         <f>EPP_TC010!D2</f>
@@ -1252,7 +1249,7 @@
       </c>
       <c r="L11">
         <f>EPP_TC010!I2</f>
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="M11">
         <f>EPP_TC010!J2</f>
@@ -1276,7 +1273,7 @@
       </c>
       <c r="R11" t="str">
         <f>EPP_TC010!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S11" t="str">
         <f>EPP_TC010!P2</f>
@@ -1295,7 +1292,7 @@
       </c>
       <c r="F12" s="22" t="str">
         <f>EPP_TC011!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G12">
         <f>EPP_TC011!D2</f>
@@ -1319,7 +1316,7 @@
       </c>
       <c r="L12">
         <f>EPP_TC011!I2</f>
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="M12">
         <f>EPP_TC011!J2</f>
@@ -1343,7 +1340,7 @@
       </c>
       <c r="R12" t="str">
         <f>EPP_TC011!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S12">
         <f>EPP_TC011!P2</f>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="F13" s="22" t="str">
         <f>EPP_TC012!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G13">
         <f>EPP_TC012!D2</f>
@@ -1410,7 +1407,7 @@
       </c>
       <c r="R13" t="str">
         <f>EPP_TC012!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S13" t="str">
         <f>EPP_TC012!P2</f>
@@ -1429,7 +1426,7 @@
       </c>
       <c r="F14" s="22" t="str">
         <f>EPP_TC013!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G14">
         <f>-EPP_TC013!D2</f>
@@ -1477,7 +1474,7 @@
       </c>
       <c r="R14" t="str">
         <f>EPP_TC013!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S14">
         <f>-EPP_TC013!P2</f>
@@ -1496,7 +1493,7 @@
       </c>
       <c r="F15" s="22" t="str">
         <f>EPP_TC014!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G15">
         <f>EPP_TC014!D2</f>
@@ -1544,7 +1541,7 @@
       </c>
       <c r="R15" t="str">
         <f>EPP_TC014!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1559,7 +1556,7 @@
       </c>
       <c r="F16" s="22" t="str">
         <f>EPP_TC015!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="H16" t="str">
         <f>EPP_TC015!E2</f>
@@ -1603,7 +1600,7 @@
       </c>
       <c r="R16" t="str">
         <f>EPP_TC015!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S16">
         <f>EPP_TC015!P2</f>
@@ -1622,7 +1619,7 @@
       </c>
       <c r="F17" s="22" t="str">
         <f>EPP_TC016!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G17">
         <f>EPP_TC016!D2</f>
@@ -1646,7 +1643,7 @@
       </c>
       <c r="L17">
         <f>EPP_TC016!I2</f>
-        <v>7.5</v>
+        <v>67</v>
       </c>
       <c r="M17">
         <f>EPP_TC016!J2</f>
@@ -1670,7 +1667,7 @@
       </c>
       <c r="R17" t="str">
         <f>EPP_TC016!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S17">
         <f>EPP_TC016!P2</f>
@@ -1689,7 +1686,7 @@
       </c>
       <c r="F18" s="22" t="str">
         <f>EPP_TC017!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G18">
         <f>EPP_TC017!D2</f>
@@ -1737,7 +1734,7 @@
       </c>
       <c r="R18" t="str">
         <f>EPP_TC017!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S18">
         <f>EPP_TC017!P2</f>
@@ -1756,7 +1753,7 @@
       </c>
       <c r="F19" s="22" t="str">
         <f>EPP_TC018!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G19">
         <f>EPP_TC018!D2</f>
@@ -1804,7 +1801,7 @@
       </c>
       <c r="R19" t="str">
         <f>EPP_TC018!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S19">
         <f>EPP_TC018!P2</f>
@@ -1823,7 +1820,7 @@
       </c>
       <c r="F20" s="22" t="str">
         <f>EPP_TC019!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G20">
         <f>EPP_TC019!D2</f>
@@ -1871,7 +1868,7 @@
       </c>
       <c r="R20" t="str">
         <f>EPP_TC019!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S20" t="str">
         <f>EPP_TC019!P2</f>
@@ -1894,7 +1891,7 @@
       </c>
       <c r="F21" s="22" t="str">
         <f>EPP_TC020!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G21">
         <f>EPP_TC020!D2</f>
@@ -1942,7 +1939,7 @@
       </c>
       <c r="R21" t="str">
         <f>EPP_TC020!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S21" t="str">
         <f>EPP_TC020!P2</f>
@@ -1965,7 +1962,7 @@
       </c>
       <c r="F22" s="22" t="str">
         <f>EPP_TC021!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G22">
         <f>EPP_TC021!D2</f>
@@ -2013,7 +2010,7 @@
       </c>
       <c r="R22" t="str">
         <f>EPP_TC021!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S22" t="str">
         <f>EPP_TC021!P2</f>
@@ -2036,7 +2033,7 @@
       </c>
       <c r="F23" s="22" t="str">
         <f>EPP_TC022!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="G23">
         <f>EPP_TC022!D2</f>
@@ -2084,7 +2081,7 @@
       </c>
       <c r="R23" t="str">
         <f>EPP_TC022!O2</f>
-        <v>02/23/22</v>
+        <v>02/24/22</v>
       </c>
       <c r="S23">
         <f>EPP_TC022!P2</f>
@@ -2231,7 +2228,7 @@
         <v>112225666</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>90</v>
@@ -2243,7 +2240,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -2414,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF13A2-B3A9-4D53-BAC2-4D2BB08D36BF}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,7 +2506,7 @@
         <v>1378082</v>
       </c>
       <c r="I2" s="14">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="J2" s="14">
         <v>112225666</v>
@@ -2527,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>42</v>
@@ -2679,7 +2676,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2766,7 @@
         <v>1378082</v>
       </c>
       <c r="I2" s="14">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="J2" s="14">
         <v>112225666</v>
@@ -2787,7 +2784,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -3046,7 +3043,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>87</v>
@@ -3274,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3498,7 +3495,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -4028,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -4499,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,7 +4587,7 @@
         <v>1378082</v>
       </c>
       <c r="I2" s="8">
-        <v>7.5</v>
+        <v>67</v>
       </c>
       <c r="J2" s="8">
         <v>112225667</v>
@@ -4608,7 +4605,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -5140,7 +5137,7 @@
         <v>112225666</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L2" s="27" t="s">
         <v>90</v>
@@ -5152,7 +5149,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -5696,7 +5693,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -6240,7 +6237,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="120" x14ac:dyDescent="0.25">
@@ -6271,7 +6268,7 @@
         <v>112225661</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
         <v>95</v>
@@ -6283,7 +6280,7 @@
         <v>15</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -6469,7 +6466,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
         <v>103</v>
@@ -6891,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E176859F-1670-4AB6-8FD7-9A1FD693778D}">
   <dimension ref="A1:BB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7004,7 +7001,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>88</v>
@@ -7545,7 +7542,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
         <v>103</v>
@@ -8074,7 +8071,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
@@ -8582,7 +8579,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8695,7 +8692,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8801,7 +8798,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -8971,16 +8968,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -9044,16 +9041,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
+++ b/src/main/resources/testdesign/testdata/application/EPP/EPPTD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fiservcorp-my.sharepoint.com/personal/moksha_mukh_fiserv_com/Documents/Desktop/Republic UAT/TestAutomation/git/workspace/Test_Automation/src/main/resources/testdesign/testdata/application/EPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New_FrameWork\Git\Workspace\Test_Automation\src\main\resources\testdesign\testdata\application\EPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="499" documentId="13_ncr:1_{7D857F8F-02C8-4F30-B90F-A5FBB09BEF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF589BD7-D242-4A14-AECD-F3AF2DB44816}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D7FF6-B0FC-40ED-80BD-D8A2F5AC4F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinkingSheet" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="129">
   <si>
     <t>TestID</t>
   </si>
@@ -440,6 +439,9 @@
   </si>
   <si>
     <t>Roginski ManufacturingBA</t>
+  </si>
+  <si>
+    <t>02/28/22</t>
   </si>
 </sst>
 </file>
@@ -959,7 +961,7 @@
       </c>
       <c r="F2" s="22" t="str">
         <f>EPP_TC001!O2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
       <c r="G2">
         <f>EPP_TC001!D2</f>
@@ -983,7 +985,7 @@
       </c>
       <c r="L2">
         <f>EPP_TC001!I2</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <f>EPP_TC001!J2</f>
@@ -1007,7 +1009,7 @@
       </c>
       <c r="R2" t="str">
         <f>EPP_TC001!O2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
       <c r="S2" t="s">
         <v>116</v>
@@ -1025,7 +1027,7 @@
       </c>
       <c r="F3" t="str">
         <f>EPP_TC002!M2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
       <c r="G3">
         <f>EPP_TC002!D2</f>
@@ -1044,7 +1046,7 @@
       </c>
       <c r="F4" s="22" t="str">
         <f>EPP_TC003!K2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1059,7 +1061,7 @@
       </c>
       <c r="F5" s="22" t="str">
         <f>EPP_TC004!J2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1166,7 +1168,7 @@
       </c>
       <c r="F10" s="22" t="str">
         <f>EPP_TC009!O2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
       <c r="H10" t="str">
         <f>EPP_TC009!E2</f>
@@ -1186,7 +1188,7 @@
       </c>
       <c r="L10">
         <f>EPP_TC009!I2</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <f>EPP_TC009!J2</f>
@@ -1210,7 +1212,7 @@
       </c>
       <c r="R10" t="str">
         <f>EPP_TC009!O2</f>
-        <v>02/24/22</v>
+        <v>02/28/22</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2131,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F788E8B-CAB8-4367-99FC-CF2D134775AA}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2222,7 +2224,7 @@
         <v>1378082</v>
       </c>
       <c r="I2" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J2" s="14">
         <v>112225666</v>
@@ -2240,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -4496,7 +4498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C49DC7-436B-41FD-80BD-4423996E92DA}">
   <dimension ref="A1:BC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6128,8 +6130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6219,7 +6221,7 @@
         <v>119</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <v>112225661</v>
@@ -6237,7 +6239,7 @@
         <v>15</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="120" x14ac:dyDescent="0.25">
@@ -8482,8 +8484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DBD25-D4B3-480C-82DC-CC46CBC12638}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8579,7 +8581,7 @@
         <v>15</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8692,7 +8694,7 @@
         <v>16</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -8798,7 +8800,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -8811,7 +8813,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8866,7 +8868,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
